--- a/Import Integration/ImportIntegration/bin/Release/Vehicle Receiving.xlsx
+++ b/Import Integration/ImportIntegration/bin/Release/Vehicle Receiving.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgerero\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgerero\Documents\GitHub\dms\Import Integration\ImportIntegration\bin\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
